--- a/projects/puerto_rico_stoch/data/data_W.xlsx
+++ b/projects/puerto_rico_stoch/data/data_W.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFBC4B6-0A2C-41F6-8BC8-DF1747981014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" activeTab="8"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -24,17 +25,23 @@
     <sheet name="ReserveMargin" sheetId="13" r:id="rId15"/>
     <sheet name="capacityFactorTOD" sheetId="14" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="220">
   <si>
     <t>connection</t>
   </si>
@@ -699,7 +706,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1104,19 +1111,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1136,7 +1143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1156,7 +1163,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1164,7 +1171,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1172,7 +1179,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -1183,7 +1190,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1191,7 +1198,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1202,7 +1209,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1226,7 +1233,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1240,7 +1247,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -1256,7 +1263,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -1264,7 +1271,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -1272,7 +1279,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -1280,7 +1287,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>141</v>
       </c>
@@ -1288,7 +1295,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -1296,7 +1303,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -1304,7 +1311,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1320,7 +1327,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>171</v>
       </c>
@@ -1328,7 +1335,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -1336,7 +1343,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -1344,7 +1351,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -1354,38 +1361,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
-    <hyperlink ref="E10" r:id="rId4"/>
-    <hyperlink ref="E18" r:id="rId5"/>
-    <hyperlink ref="E17" r:id="rId6"/>
-    <hyperlink ref="E16" r:id="rId7"/>
-    <hyperlink ref="E20" r:id="rId8"/>
-    <hyperlink ref="E21" r:id="rId9"/>
-    <hyperlink ref="E23" r:id="rId10"/>
-    <hyperlink ref="E22" r:id="rId11"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -1411,7 +1418,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
@@ -1437,7 +1444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -1463,7 +1470,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -1489,7 +1496,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -1515,7 +1522,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -1541,7 +1548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -1567,7 +1574,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -1593,7 +1600,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -1619,7 +1626,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -1645,7 +1652,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -1671,7 +1678,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -1697,7 +1704,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -1723,7 +1730,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>117</v>
       </c>
@@ -1749,7 +1756,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>118</v>
       </c>
@@ -1775,7 +1782,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>215</v>
       </c>
@@ -1801,7 +1808,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>216</v>
       </c>
@@ -1827,7 +1834,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
@@ -1853,7 +1860,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>119</v>
       </c>
@@ -1879,7 +1886,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -1905,7 +1912,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -1931,7 +1938,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -1957,7 +1964,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -1983,7 +1990,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2009,7 +2016,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -2035,7 +2042,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -2061,7 +2068,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2087,7 +2094,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2130,25 +2137,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -2177,7 +2184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
@@ -2206,7 +2213,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -2254,7 +2261,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -2277,7 +2284,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -2300,7 +2307,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -2323,7 +2330,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -2346,7 +2353,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -2371,7 +2378,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -2421,7 +2428,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -2446,7 +2453,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -2471,7 +2478,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>117</v>
       </c>
@@ -2494,7 +2501,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>118</v>
       </c>
@@ -2519,7 +2526,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>215</v>
       </c>
@@ -2544,7 +2551,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>216</v>
       </c>
@@ -2569,7 +2576,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
@@ -2594,7 +2601,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>119</v>
       </c>
@@ -2619,7 +2626,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -2644,7 +2651,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -2669,7 +2676,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -2694,7 +2701,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -2717,7 +2724,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -2767,7 +2774,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -2792,7 +2799,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2817,7 +2824,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2849,25 +2856,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2890,7 +2897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2913,7 +2920,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2932,7 +2939,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -2951,7 +2958,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -2970,7 +2977,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -2989,7 +2996,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -3008,7 +3015,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -3027,7 +3034,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -3050,7 +3057,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -3069,7 +3076,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -3088,7 +3095,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -3107,7 +3114,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -3126,7 +3133,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>117</v>
       </c>
@@ -3149,7 +3156,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>118</v>
       </c>
@@ -3172,7 +3179,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>215</v>
       </c>
@@ -3195,7 +3202,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>216</v>
       </c>
@@ -3216,7 +3223,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
@@ -3237,7 +3244,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>119</v>
       </c>
@@ -3260,7 +3267,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -3283,7 +3290,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -3306,7 +3313,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -3329,7 +3336,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -3352,7 +3359,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -3375,7 +3382,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -3398,7 +3405,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -3421,7 +3428,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -3444,7 +3451,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -3467,7 +3474,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F29" s="7"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -3480,25 +3487,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3521,7 +3528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3544,7 +3551,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -3555,7 +3562,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -3566,7 +3573,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -3577,7 +3584,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -3588,7 +3595,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -3599,7 +3606,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -3610,7 +3617,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -3623,35 +3630,35 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>117</v>
       </c>
@@ -3662,7 +3669,7 @@
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>118</v>
       </c>
@@ -3677,7 +3684,7 @@
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>215</v>
       </c>
@@ -3692,7 +3699,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>216</v>
       </c>
@@ -3707,7 +3714,7 @@
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
@@ -3722,7 +3729,7 @@
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>119</v>
       </c>
@@ -3737,7 +3744,7 @@
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -3748,7 +3755,7 @@
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -3761,7 +3768,7 @@
       </c>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -3774,12 +3781,12 @@
       </c>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -3790,7 +3797,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -3801,12 +3808,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -3814,7 +3821,7 @@
         <v>705.6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -3829,21 +3836,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3857,7 +3864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3871,7 +3878,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -3885,7 +3892,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -3899,7 +3906,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
@@ -3913,7 +3920,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
@@ -3927,7 +3934,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>108</v>
       </c>
@@ -3941,7 +3948,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>108</v>
       </c>
@@ -3955,7 +3962,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
@@ -3969,7 +3976,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -3983,7 +3990,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
@@ -3997,7 +4004,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>110</v>
       </c>
@@ -4011,7 +4018,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>110</v>
       </c>
@@ -4025,7 +4032,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>110</v>
       </c>
@@ -4039,7 +4046,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>111</v>
       </c>
@@ -4053,7 +4060,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>111</v>
       </c>
@@ -4067,7 +4074,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>111</v>
       </c>
@@ -4081,7 +4088,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>111</v>
       </c>
@@ -4095,7 +4102,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
@@ -4109,7 +4116,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>111</v>
       </c>
@@ -4123,7 +4130,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>112</v>
       </c>
@@ -4137,7 +4144,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>113</v>
       </c>
@@ -4151,7 +4158,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>114</v>
       </c>
@@ -4165,7 +4172,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
@@ -4179,7 +4186,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
@@ -4193,7 +4200,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>116</v>
       </c>
@@ -4214,21 +4221,21 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -4244,7 +4251,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4255,22 +4262,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -4287,7 +4294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4304,7 +4311,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>95</v>
       </c>
@@ -4321,7 +4328,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -4338,7 +4345,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>95</v>
       </c>
@@ -4355,7 +4362,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
@@ -4372,7 +4379,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
@@ -4389,7 +4396,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -4406,7 +4413,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -4423,7 +4430,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>95</v>
       </c>
@@ -4440,7 +4447,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>95</v>
       </c>
@@ -4457,7 +4464,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
@@ -4474,7 +4481,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -4491,7 +4498,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
@@ -4508,7 +4515,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>95</v>
       </c>
@@ -4525,7 +4532,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
@@ -4542,7 +4549,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
@@ -4559,7 +4566,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>95</v>
       </c>
@@ -4576,7 +4583,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>95</v>
       </c>
@@ -4593,7 +4600,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>95</v>
       </c>
@@ -4610,7 +4617,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>95</v>
       </c>
@@ -4627,7 +4634,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
@@ -4644,7 +4651,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -4661,7 +4668,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>95</v>
       </c>
@@ -4678,7 +4685,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
@@ -4695,7 +4702,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>95</v>
       </c>
@@ -4712,7 +4719,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -4729,7 +4736,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
@@ -4746,7 +4753,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>95</v>
       </c>
@@ -4763,7 +4770,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
@@ -4780,7 +4787,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
@@ -4797,7 +4804,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
@@ -4814,7 +4821,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>95</v>
       </c>
@@ -4831,7 +4838,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>95</v>
       </c>
@@ -4848,7 +4855,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>95</v>
       </c>
@@ -4865,7 +4872,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
@@ -4882,7 +4889,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
@@ -4899,7 +4906,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>95</v>
       </c>
@@ -4916,7 +4923,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>95</v>
       </c>
@@ -4933,7 +4940,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
@@ -4950,7 +4957,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
@@ -4967,7 +4974,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>95</v>
       </c>
@@ -4984,7 +4991,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -5001,7 +5008,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>95</v>
       </c>
@@ -5018,7 +5025,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -5035,7 +5042,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>95</v>
       </c>
@@ -5052,7 +5059,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>95</v>
       </c>
@@ -5069,7 +5076,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
@@ -5086,7 +5093,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
@@ -5103,7 +5110,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
@@ -5120,7 +5127,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>96</v>
       </c>
@@ -5137,7 +5144,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>96</v>
       </c>
@@ -5154,7 +5161,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>96</v>
       </c>
@@ -5171,7 +5178,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>96</v>
       </c>
@@ -5188,7 +5195,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>96</v>
       </c>
@@ -5205,7 +5212,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>96</v>
       </c>
@@ -5222,7 +5229,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>96</v>
       </c>
@@ -5239,7 +5246,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>96</v>
       </c>
@@ -5256,7 +5263,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>96</v>
       </c>
@@ -5273,7 +5280,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>96</v>
       </c>
@@ -5290,7 +5297,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>96</v>
       </c>
@@ -5307,7 +5314,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>96</v>
       </c>
@@ -5324,7 +5331,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>96</v>
       </c>
@@ -5341,7 +5348,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>96</v>
       </c>
@@ -5358,7 +5365,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>96</v>
       </c>
@@ -5375,7 +5382,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>96</v>
       </c>
@@ -5392,7 +5399,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>96</v>
       </c>
@@ -5409,7 +5416,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
@@ -5426,7 +5433,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
@@ -5443,7 +5450,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>96</v>
       </c>
@@ -5460,7 +5467,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -5477,7 +5484,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>96</v>
       </c>
@@ -5494,7 +5501,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>96</v>
       </c>
@@ -5511,7 +5518,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>96</v>
       </c>
@@ -5528,7 +5535,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>96</v>
       </c>
@@ -5545,7 +5552,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
@@ -5562,7 +5569,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>96</v>
       </c>
@@ -5579,7 +5586,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>96</v>
       </c>
@@ -5596,7 +5603,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>96</v>
       </c>
@@ -5613,7 +5620,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>96</v>
       </c>
@@ -5630,7 +5637,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>96</v>
       </c>
@@ -5647,7 +5654,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>96</v>
       </c>
@@ -5664,7 +5671,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>96</v>
       </c>
@@ -5681,7 +5688,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>96</v>
       </c>
@@ -5698,7 +5705,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
@@ -5715,7 +5722,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>96</v>
       </c>
@@ -5732,7 +5739,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
@@ -5749,7 +5756,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>96</v>
       </c>
@@ -5766,7 +5773,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>96</v>
       </c>
@@ -5783,7 +5790,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>96</v>
       </c>
@@ -5800,7 +5807,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>96</v>
       </c>
@@ -5817,7 +5824,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>96</v>
       </c>
@@ -5834,7 +5841,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
@@ -5851,7 +5858,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>96</v>
       </c>
@@ -5868,7 +5875,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
@@ -5885,7 +5892,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
@@ -5902,7 +5909,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -5919,7 +5926,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
@@ -5943,18 +5950,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -5965,7 +5972,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -5976,7 +5983,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -5987,7 +5994,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -6004,20 +6011,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -6028,7 +6035,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -6039,7 +6046,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>185</v>
       </c>
@@ -6050,7 +6057,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -6061,7 +6068,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -6072,7 +6079,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -6083,7 +6090,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -6094,7 +6101,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>190</v>
       </c>
@@ -6105,7 +6112,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -6116,7 +6123,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -6127,7 +6134,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -6138,7 +6145,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -6149,7 +6156,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -6160,7 +6167,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -6171,7 +6178,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -6182,7 +6189,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -6193,7 +6200,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -6204,7 +6211,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -6215,7 +6222,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -6226,7 +6233,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -6237,7 +6244,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -6248,7 +6255,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -6259,7 +6266,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -6270,7 +6277,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -6281,7 +6288,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -6292,7 +6299,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -6310,26 +6317,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6364,7 +6371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -6399,7 +6406,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6434,7 +6441,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -6465,7 +6472,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -6500,7 +6507,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -6535,7 +6542,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -6555,7 +6562,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -6590,7 +6597,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -6625,7 +6632,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -6648,7 +6655,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -6671,7 +6678,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -6694,7 +6701,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -6717,7 +6724,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -6747,20 +6754,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6774,7 +6781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -6788,7 +6795,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6802,7 +6809,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -6816,7 +6823,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -6830,7 +6837,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -6851,20 +6858,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6878,7 +6885,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -6892,7 +6899,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -6904,7 +6911,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -6916,7 +6923,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -6927,38 +6934,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2031</v>
-      </c>
-      <c r="B6" s="3">
-        <v>65.77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2036</v>
-      </c>
-      <c r="B7" s="3">
-        <v>65.47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2041</v>
-      </c>
-      <c r="B8" s="3">
-        <v>65.41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6967,20 +6950,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
@@ -6988,7 +6971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -6996,7 +6979,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.09</v>
       </c>
@@ -7010,28 +6993,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -7069,7 +7052,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -7107,7 +7090,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -7134,7 +7117,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -7163,7 +7146,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -7192,7 +7175,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -7206,7 +7189,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -7226,7 +7209,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -7255,7 +7238,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -7287,7 +7270,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -7301,7 +7284,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -7322,19 +7305,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -7348,7 +7331,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -7362,7 +7345,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>

--- a/projects/puerto_rico_stoch/data/data_W.xlsx
+++ b/projects/puerto_rico_stoch/data/data_W.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFBC4B6-0A2C-41F6-8BC8-DF1747981014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F8AA03-981F-4854-994A-632CD4085212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -775,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -787,7 +787,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,7 +1185,7 @@
       <c r="C5" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1205,7 +1204,7 @@
       <c r="C7" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1213,7 +1212,7 @@
       <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1229,7 +1228,7 @@
       <c r="A10" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1283,7 +1282,7 @@
       <c r="A16" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1291,7 +1290,7 @@
       <c r="A17" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1299,7 +1298,7 @@
       <c r="A18" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1307,7 +1306,7 @@
       <c r="A19" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1315,7 +1314,7 @@
       <c r="A20" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1323,7 +1322,7 @@
       <c r="A21" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1331,7 +1330,7 @@
       <c r="A22" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1339,7 +1338,7 @@
       <c r="A23" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1731,65 +1730,65 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1801,21 +1800,21 @@
       <c r="F16" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1827,21 +1826,21 @@
       <c r="F17" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1853,114 +1852,114 @@
       <c r="F18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2479,225 +2478,225 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>50</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22">
         <v>85</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23">
+      <c r="E14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22">
         <v>15</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>56</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="C15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="22">
         <v>25.3</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24">
+      <c r="E15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23">
         <v>45</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>85</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="26">
+      <c r="C16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="25">
         <v>38.799999999999997</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
+      <c r="E16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22">
         <v>75</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>87</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="C17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="25">
         <v>51.7</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23">
+      <c r="E17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22">
         <v>55</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>87</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="26">
+      <c r="C18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="25">
         <v>51.7</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23">
+      <c r="E18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22">
         <v>55</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>87</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="23">
+      <c r="C19" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="22">
         <v>62.02</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23">
+      <c r="E19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22">
         <v>55</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>30</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="23">
+      <c r="C20" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="22">
         <v>42.47</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24">
+      <c r="E20" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23">
         <v>55</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>22</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="23">
+      <c r="C21" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="22">
         <v>36.799999999999997</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22">
         <v>30</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>31</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="23">
+      <c r="C22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="22">
         <v>36.799999999999997</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22">
         <v>30</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="22" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2929,13 +2928,13 @@
       <c r="D3" s="6">
         <v>75.97</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F3" s="9">
         <v>1.919</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2943,18 +2942,18 @@
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12">
         <v>19.599999999999998</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F4" s="9">
         <v>2.8380000000000001</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2962,18 +2961,18 @@
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
         <v>24.633333333333336</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F5" s="9">
         <v>0.99299999999999999</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2986,13 +2985,13 @@
       <c r="D6" s="6">
         <v>30.57</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F6" s="9">
         <v>0.59699999999999998</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3005,13 +3004,13 @@
       <c r="D7" s="6">
         <v>34.31</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F7" s="9">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3024,13 +3023,13 @@
       <c r="D8" s="6">
         <v>45.56</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F8" s="9">
         <v>1.0289999999999999</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3041,19 +3040,19 @@
       <c r="B9" s="6">
         <v>3935</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="12">
         <v>43</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>196</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3062,8 +3061,8 @@
         <v>113</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
         <v>425.4</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -3085,13 +3084,13 @@
       <c r="D11" s="10">
         <v>18.100000000000001</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3104,13 +3103,13 @@
       <c r="D12" s="6">
         <v>13</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>196</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3123,216 +3122,216 @@
       <c r="D13" s="7">
         <v>42</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="E13" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="27">
         <v>0</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>1284</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="24">
+      <c r="C14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="23">
         <v>32.1</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="24">
+      <c r="E14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="23">
         <v>0</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>3749</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="C15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="23">
         <v>112</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="24">
+      <c r="E15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="23">
         <v>1.67</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>3644</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="C16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="23">
         <v>33</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="E16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="23">
         <v>1.39</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>952</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="24">
+      <c r="C17" s="25"/>
+      <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="E17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="23">
         <v>11.33</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>952</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="24">
+      <c r="C18" s="25"/>
+      <c r="D18" s="23">
         <v>1</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="24">
+      <c r="E18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="23">
         <v>11.33</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>612.6</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="C19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="26">
         <v>11</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="24">
+      <c r="E19" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="23">
         <v>0.83299999999999996</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>188.3</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="24">
+      <c r="C20" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="23">
         <v>12</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="24">
+      <c r="E20" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="23">
         <v>1.944</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>1060</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="24">
+      <c r="C21" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="23">
         <v>13</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F21" s="24">
+      <c r="E21" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>1494</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="24">
+      <c r="C22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="23">
         <v>42</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="24">
+      <c r="E22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="23">
         <v>0</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3352,7 +3351,7 @@
       <c r="E23" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -3375,7 +3374,7 @@
       <c r="E24" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>1.67</v>
       </c>
       <c r="G24" s="9" t="s">
@@ -3398,7 +3397,7 @@
       <c r="E25" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>0.83299999999999996</v>
       </c>
       <c r="G25" s="9" t="s">
@@ -3421,7 +3420,7 @@
       <c r="E26" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <v>1.944</v>
       </c>
       <c r="G26" s="9" t="s">
@@ -3659,127 +3658,127 @@
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="26">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="25">
         <v>290</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.01</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0.93</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0.93</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>1</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25">
         <v>705.6</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25">
         <v>71.64</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -3868,7 +3867,7 @@
       <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>148</v>
       </c>
       <c r="C2" t="s">
@@ -3882,10 +3881,10 @@
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>454</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2002</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3896,10 +3895,10 @@
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>378</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>1973</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3910,10 +3909,10 @@
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>247.5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>1997</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3924,10 +3923,10 @@
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>220</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>2009</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3938,10 +3937,10 @@
       <c r="A7" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>296</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1975</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3952,10 +3951,10 @@
       <c r="A8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>296</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>1976</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -3966,10 +3965,10 @@
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>440</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>2008</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3980,10 +3979,10 @@
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>900</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>1971</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -3994,10 +3993,10 @@
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>85</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>1960</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -4008,10 +4007,10 @@
       <c r="A12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>85</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>1962</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -4022,10 +4021,10 @@
       <c r="A13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>410</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>1969</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -4036,10 +4035,10 @@
       <c r="A14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>410</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>1972</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -4050,10 +4049,10 @@
       <c r="A15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>170</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>1959</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -4064,10 +4063,10 @@
       <c r="A16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>200</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>1964</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -4078,10 +4077,10 @@
       <c r="A17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>100</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>1965</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -4092,10 +4091,10 @@
       <c r="A18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>100</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>1966</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -4106,10 +4105,10 @@
       <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>216</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>1967</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -4120,10 +4119,10 @@
       <c r="A20" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>216</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>1968</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -4134,10 +4133,10 @@
       <c r="A21" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>100</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>1953</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -4148,10 +4147,10 @@
       <c r="A22" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>2.4</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>2015</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -4162,10 +4161,10 @@
       <c r="A23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>507</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>2000</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4176,10 +4175,10 @@
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>22.1</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>2012</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -4190,10 +4189,10 @@
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>30</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>2015</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -4204,10 +4203,10 @@
       <c r="A26" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>102</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>2012</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -4318,7 +4317,7 @@
       <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D3">
@@ -4335,7 +4334,7 @@
       <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D4">
@@ -4352,7 +4351,7 @@
       <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D5">
@@ -4369,7 +4368,7 @@
       <c r="B6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D6">
@@ -4386,7 +4385,7 @@
       <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D7">
@@ -4403,7 +4402,7 @@
       <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D8">
@@ -4420,7 +4419,7 @@
       <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D9">
@@ -4437,7 +4436,7 @@
       <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D10">
@@ -4454,7 +4453,7 @@
       <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D11">
@@ -4471,7 +4470,7 @@
       <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D12">
@@ -4488,7 +4487,7 @@
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D13">
@@ -4505,7 +4504,7 @@
       <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D14">
@@ -4522,7 +4521,7 @@
       <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D15">
@@ -4539,7 +4538,7 @@
       <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D16">
@@ -4556,7 +4555,7 @@
       <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D17">
@@ -4573,7 +4572,7 @@
       <c r="B18" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D18">
@@ -4590,7 +4589,7 @@
       <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D19">
@@ -4607,7 +4606,7 @@
       <c r="B20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D20">
@@ -4624,7 +4623,7 @@
       <c r="B21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D21">
@@ -4641,7 +4640,7 @@
       <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D22">
@@ -4658,7 +4657,7 @@
       <c r="B23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D23">
@@ -4675,7 +4674,7 @@
       <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D24">
@@ -4692,7 +4691,7 @@
       <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D25">
@@ -4709,7 +4708,7 @@
       <c r="B26" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D26">
@@ -4726,7 +4725,7 @@
       <c r="B27" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D27">
@@ -4743,7 +4742,7 @@
       <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D28">
@@ -4760,7 +4759,7 @@
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D29">
@@ -4777,7 +4776,7 @@
       <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D30">
@@ -4794,7 +4793,7 @@
       <c r="B31" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D31">
@@ -4811,7 +4810,7 @@
       <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D32">
@@ -4828,7 +4827,7 @@
       <c r="B33" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D33">
@@ -4845,7 +4844,7 @@
       <c r="B34" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D34">
@@ -4862,7 +4861,7 @@
       <c r="B35" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D35">
@@ -4879,7 +4878,7 @@
       <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D36">
@@ -4896,7 +4895,7 @@
       <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D37">
@@ -4913,7 +4912,7 @@
       <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D38">
@@ -4930,7 +4929,7 @@
       <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D39">
@@ -4947,7 +4946,7 @@
       <c r="B40" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D40">
@@ -4964,7 +4963,7 @@
       <c r="B41" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D41">
@@ -4981,7 +4980,7 @@
       <c r="B42" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D42">
@@ -4998,7 +4997,7 @@
       <c r="B43" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D43">
@@ -5015,7 +5014,7 @@
       <c r="B44" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D44">
@@ -5032,7 +5031,7 @@
       <c r="B45" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D45">
@@ -5049,7 +5048,7 @@
       <c r="B46" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D46">
@@ -5066,7 +5065,7 @@
       <c r="B47" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D47">
@@ -5083,7 +5082,7 @@
       <c r="B48" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D48">
@@ -5100,7 +5099,7 @@
       <c r="B49" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D49">
@@ -5117,7 +5116,7 @@
       <c r="B50" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D50">
@@ -5134,7 +5133,7 @@
       <c r="B51" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D51">
@@ -5151,7 +5150,7 @@
       <c r="B52" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D52">
@@ -5168,7 +5167,7 @@
       <c r="B53" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D53">
@@ -5185,7 +5184,7 @@
       <c r="B54" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D54">
@@ -5202,7 +5201,7 @@
       <c r="B55" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D55">
@@ -5219,7 +5218,7 @@
       <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D56">
@@ -5236,7 +5235,7 @@
       <c r="B57" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D57">
@@ -5253,7 +5252,7 @@
       <c r="B58" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D58">
@@ -5270,7 +5269,7 @@
       <c r="B59" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D59">
@@ -5287,7 +5286,7 @@
       <c r="B60" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D60">
@@ -5304,7 +5303,7 @@
       <c r="B61" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D61">
@@ -5321,7 +5320,7 @@
       <c r="B62" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D62">
@@ -5338,7 +5337,7 @@
       <c r="B63" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D63">
@@ -5355,7 +5354,7 @@
       <c r="B64" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D64">
@@ -5372,7 +5371,7 @@
       <c r="B65" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D65">
@@ -5389,7 +5388,7 @@
       <c r="B66" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D66">
@@ -5406,7 +5405,7 @@
       <c r="B67" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D67">
@@ -5423,7 +5422,7 @@
       <c r="B68" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D68">
@@ -5440,7 +5439,7 @@
       <c r="B69" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D69">
@@ -5457,7 +5456,7 @@
       <c r="B70" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D70">
@@ -5474,7 +5473,7 @@
       <c r="B71" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D71">
@@ -5491,7 +5490,7 @@
       <c r="B72" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D72">
@@ -5508,7 +5507,7 @@
       <c r="B73" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D73">
@@ -5525,7 +5524,7 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D74">
@@ -5542,7 +5541,7 @@
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D75">
@@ -5559,7 +5558,7 @@
       <c r="B76" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D76">
@@ -5576,7 +5575,7 @@
       <c r="B77" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D77">
@@ -5593,7 +5592,7 @@
       <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D78">
@@ -5610,7 +5609,7 @@
       <c r="B79" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D79">
@@ -5627,7 +5626,7 @@
       <c r="B80" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D80">
@@ -5644,7 +5643,7 @@
       <c r="B81" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D81">
@@ -5661,7 +5660,7 @@
       <c r="B82" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D82">
@@ -5678,7 +5677,7 @@
       <c r="B83" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D83">
@@ -5695,7 +5694,7 @@
       <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D84">
@@ -5712,7 +5711,7 @@
       <c r="B85" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D85">
@@ -5729,7 +5728,7 @@
       <c r="B86" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D86">
@@ -5746,7 +5745,7 @@
       <c r="B87" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D87">
@@ -5763,7 +5762,7 @@
       <c r="B88" t="s">
         <v>84</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D88">
@@ -5780,7 +5779,7 @@
       <c r="B89" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D89">
@@ -5797,7 +5796,7 @@
       <c r="B90" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D90">
@@ -5814,7 +5813,7 @@
       <c r="B91" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D91">
@@ -5831,7 +5830,7 @@
       <c r="B92" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D92">
@@ -5848,7 +5847,7 @@
       <c r="B93" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D93">
@@ -5865,7 +5864,7 @@
       <c r="B94" t="s">
         <v>84</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D94">
@@ -5882,7 +5881,7 @@
       <c r="B95" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D95">
@@ -5899,7 +5898,7 @@
       <c r="B96" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D96">
@@ -5916,7 +5915,7 @@
       <c r="B97" t="s">
         <v>84</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D97">
@@ -5933,7 +5932,7 @@
       <c r="B98" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D98">
@@ -6862,7 +6861,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6881,7 +6880,7 @@
       <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6895,7 +6894,7 @@
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6909,7 +6908,9 @@
       <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -6921,7 +6922,9 @@
       <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -6932,6 +6935,9 @@
       </c>
       <c r="C5" t="s">
         <v>87</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">

--- a/projects/puerto_rico_stoch/data/data_W.xlsx
+++ b/projects/puerto_rico_stoch/data/data_W.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F8AA03-981F-4854-994A-632CD4085212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2487EF-DE7F-499C-8C51-3D33A364EBE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="220">
   <si>
     <t>connection</t>
   </si>
@@ -775,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -815,6 +815,8 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1381,7 +1383,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2139,7 +2141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -2858,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3294,11 +3296,9 @@
         <v>121</v>
       </c>
       <c r="B21" s="23">
-        <v>1060</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>196</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="C21" s="22"/>
       <c r="D21" s="23">
         <v>13</v>
       </c>
@@ -3432,11 +3432,9 @@
         <v>134</v>
       </c>
       <c r="B27" s="7">
-        <v>1060</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>196</v>
-      </c>
+        <v>1460</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="7">
         <v>13</v>
       </c>
@@ -4265,7 +4263,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6858,10 +6856,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6870,7 +6868,7 @@
     <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6884,7 +6882,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -6895,14 +6893,14 @@
         <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="30">
         <v>75.239999999999995</v>
       </c>
       <c r="C3" t="s">
@@ -6912,42 +6910,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="30">
         <v>66.999600000000001</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2026</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="30">
         <v>66.103200000000001</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2031</v>
+      </c>
+      <c r="B6" s="30">
+        <v>65.77</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2036</v>
+      </c>
+      <c r="B7" s="30">
+        <v>65.47</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2041</v>
+      </c>
+      <c r="B8" s="30">
+        <v>65.41</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projects/puerto_rico_stoch/data/data_W.xlsx
+++ b/projects/puerto_rico_stoch/data/data_W.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2487EF-DE7F-499C-8C51-3D33A364EBE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66684E1C-B998-44FF-877F-D618526116F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="220">
   <si>
     <t>connection</t>
   </si>
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2436,9 +2436,7 @@
       <c r="B12" s="6">
         <v>22</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>196</v>
-      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2459,11 +2457,9 @@
         <v>116</v>
       </c>
       <c r="B13" s="6">
-        <v>31</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>196</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2659,9 +2655,7 @@
       <c r="B21" s="22">
         <v>22</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>196</v>
-      </c>
+      <c r="C21" s="22"/>
       <c r="D21" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2682,11 +2676,9 @@
         <v>122</v>
       </c>
       <c r="B22" s="22">
-        <v>31</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>196</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C22" s="22"/>
       <c r="D22" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2807,9 +2799,7 @@
       <c r="B27" s="6">
         <v>22</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>196</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2830,11 +2820,9 @@
         <v>135</v>
       </c>
       <c r="B28" s="6">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>196</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2861,7 +2849,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3296,7 +3284,7 @@
         <v>121</v>
       </c>
       <c r="B21" s="23">
-        <v>1130</v>
+        <v>1060</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="23">
@@ -6858,7 +6846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/projects/puerto_rico_stoch/data/data_W.xlsx
+++ b/projects/puerto_rico_stoch/data/data_W.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66684E1C-B998-44FF-877F-D618526116F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FC7CF2-9D5D-46C0-BCF8-8B768A333E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="222">
   <si>
     <t>connection</t>
   </si>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/table_8.2.pdf, 2019</t>
+  </si>
+  <si>
+    <t>IRP</t>
+  </si>
+  <si>
+    <t>https://energia.pr.gov/en/integrated-resource-plan/</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,6 +1364,14 @@
       </c>
       <c r="C25" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1373,6 +1387,7 @@
     <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="E22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E26" r:id="rId12" xr:uid="{A7FDCA60-4042-424F-BE01-B472EFA0655F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2141,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2359,10 +2374,10 @@
         <v>112</v>
       </c>
       <c r="B9" s="9">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="D9" s="9">
         <v>36.799999999999997</v>
@@ -2436,7 +2451,9 @@
       <c r="B12" s="6">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="D12" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2459,7 +2476,9 @@
       <c r="B13" s="6">
         <v>25</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="D13" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2655,7 +2674,9 @@
       <c r="B21" s="22">
         <v>22</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="22" t="s">
+        <v>220</v>
+      </c>
       <c r="D21" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2678,7 +2699,9 @@
       <c r="B22" s="22">
         <v>25</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="22" t="s">
+        <v>220</v>
+      </c>
       <c r="D22" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2799,7 +2822,9 @@
       <c r="B27" s="6">
         <v>22</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2822,7 +2847,9 @@
       <c r="B28" s="6">
         <v>25</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="D28" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2848,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3028,7 +3055,7 @@
         <v>112</v>
       </c>
       <c r="B9" s="6">
-        <v>3935</v>
+        <v>4022</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>196</v>
@@ -3053,7 +3080,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12">
-        <v>425.4</v>
+        <v>425.38</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>142</v>
@@ -3150,7 +3177,7 @@
         <v>118</v>
       </c>
       <c r="B15" s="23">
-        <v>3749</v>
+        <v>3908</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>196</v>
@@ -3173,7 +3200,7 @@
         <v>215</v>
       </c>
       <c r="B16" s="23">
-        <v>3644</v>
+        <v>3981</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>196</v>
@@ -3196,17 +3223,17 @@
         <v>216</v>
       </c>
       <c r="B17" s="23">
-        <v>952</v>
+        <v>999</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="23">
+        <v>11.33</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="23">
         <v>1</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="23">
-        <v>11.33</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>195</v>
@@ -3217,17 +3244,17 @@
         <v>218</v>
       </c>
       <c r="B18" s="23">
-        <v>952</v>
+        <v>999</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="23">
+        <v>11.33</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="23">
         <v>1</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="23">
-        <v>11.33</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>195</v>
@@ -3284,9 +3311,11 @@
         <v>121</v>
       </c>
       <c r="B21" s="23">
-        <v>1060</v>
-      </c>
-      <c r="C21" s="22"/>
+        <v>1075</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="D21" s="23">
         <v>13</v>
       </c>
@@ -3305,7 +3334,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="23">
-        <v>1494</v>
+        <v>1528</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>196</v>
@@ -3351,7 +3380,7 @@
         <v>132</v>
       </c>
       <c r="B24" s="7">
-        <v>3749</v>
+        <v>3908</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>196</v>
@@ -3420,9 +3449,11 @@
         <v>134</v>
       </c>
       <c r="B27" s="7">
-        <v>1460</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>1075</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="D27" s="7">
         <v>13</v>
       </c>
@@ -3441,7 +3472,7 @@
         <v>135</v>
       </c>
       <c r="B28" s="7">
-        <v>1494</v>
+        <v>1528</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>196</v>
@@ -3825,7 +3856,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4120,7 +4151,7 @@
         <v>112</v>
       </c>
       <c r="B21" s="13">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C21" s="14">
         <v>1953</v>
@@ -4210,7 +4241,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4238,7 +4269,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>0.26214999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6844,19 +6875,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6870,7 +6900,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -6884,7 +6914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -6898,12 +6928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
       <c r="B4" s="30">
-        <v>66.999600000000001</v>
+        <v>66.489999999999995</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -6912,12 +6942,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2026</v>
       </c>
       <c r="B5" s="30">
-        <v>66.103200000000001</v>
+        <v>67.28</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
@@ -6925,14 +6955,13 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2031</v>
       </c>
       <c r="B6" s="30">
-        <v>65.77</v>
+        <v>65.319999999999993</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>87</v>
@@ -6940,14 +6969,13 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2036</v>
       </c>
       <c r="B7" s="30">
-        <v>65.47</v>
+        <v>63.75</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>87</v>
@@ -6955,22 +6983,20 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2041</v>
       </c>
       <c r="B8" s="30">
-        <v>65.41</v>
+        <v>63.75</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="29">
         <v>0</v>
       </c>
-      <c r="E8" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7026,7 +7052,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7173,6 +7199,9 @@
       </c>
       <c r="K4" t="s">
         <v>184</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2028</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">

--- a/projects/puerto_rico_stoch/data/data_W.xlsx
+++ b/projects/puerto_rico_stoch/data/data_W.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FC7CF2-9D5D-46C0-BCF8-8B768A333E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA67214-8B19-4494-A718-811D68D716F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -16,8 +16,8 @@
     <sheet name="Demand" sheetId="3" r:id="rId6"/>
     <sheet name="DiscountRate" sheetId="5" r:id="rId7"/>
     <sheet name="Fuels" sheetId="6" r:id="rId8"/>
-    <sheet name="FuelsExisting" sheetId="7" r:id="rId9"/>
-    <sheet name="PowerPlants" sheetId="8" r:id="rId10"/>
+    <sheet name="PowerPlants" sheetId="8" r:id="rId9"/>
+    <sheet name="FuelsExisting" sheetId="7" r:id="rId10"/>
     <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId11"/>
     <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId12"/>
     <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId13"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="224">
   <si>
     <t>connection</t>
   </si>
@@ -707,6 +707,12 @@
   </si>
   <si>
     <t>https://energia.pr.gov/en/integrated-resource-plan/</t>
+  </si>
+  <si>
+    <t>CapacityCredit</t>
+  </si>
+  <si>
+    <t>[fr]</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1394,761 +1414,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>129</v>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1920</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:H15 D19:H28">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7363,58 +6681,854 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1920</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2015</v>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:D15 D19:D28 F19:H28 F3:H15">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D18 F16:H18">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E15 E19:E28">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/projects/puerto_rico_stoch/data/data_W.xlsx
+++ b/projects/puerto_rico_stoch/data/data_W.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA67214-8B19-4494-A718-811D68D716F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BBABC4-C094-4235-9E7D-9FD9974241BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -3558,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.26214999999999999</v>
+        <v>0.36215000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6195,8 +6195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6518,9 +6518,7 @@
       <c r="K4" t="s">
         <v>184</v>
       </c>
-      <c r="L4" s="1">
-        <v>2028</v>
-      </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">

--- a/projects/puerto_rico_stoch/data/data_W.xlsx
+++ b/projects/puerto_rico_stoch/data/data_W.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BBABC4-C094-4235-9E7D-9FD9974241BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828A4D46-ABD0-4AA8-BD3A-03D999146CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1474,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,7 +1557,7 @@
       <c r="C3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="29">
         <v>34.799999999999997</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1582,7 +1582,7 @@
       <c r="C4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="29">
         <v>29.9</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -1605,7 +1605,7 @@
       <c r="C5" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="29">
         <v>40</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1628,7 +1628,7 @@
       <c r="C6" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="29">
         <v>35.299999999999997</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1651,7 +1651,7 @@
       <c r="C7" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="29">
         <v>34.6</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -1674,7 +1674,7 @@
       <c r="C8" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="29">
         <v>34.1</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1697,7 +1697,7 @@
       <c r="C9" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1722,7 +1722,7 @@
       <c r="C10" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="29">
         <v>19</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -1747,7 +1747,7 @@
       <c r="C11" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="29">
         <v>45.5</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -1772,7 +1772,7 @@
       <c r="C12" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -1797,7 +1797,7 @@
       <c r="C13" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -1820,7 +1820,7 @@
         <v>50</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="22">
+      <c r="D14" s="25">
         <v>85</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -1845,7 +1845,7 @@
       <c r="C15" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="25">
         <v>25.3</v>
       </c>
       <c r="E15" s="22" t="s">
@@ -1945,8 +1945,8 @@
       <c r="C19" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="22">
-        <v>62.02</v>
+      <c r="D19" s="25">
+        <v>62.12</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>149</v>
@@ -1970,8 +1970,8 @@
       <c r="C20" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="22">
-        <v>42.47</v>
+      <c r="D20" s="25">
+        <v>42.34</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>149</v>
@@ -1995,7 +1995,7 @@
       <c r="C21" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="25">
         <v>36.799999999999997</v>
       </c>
       <c r="E21" s="22" t="s">
@@ -2020,7 +2020,7 @@
       <c r="C22" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="25">
         <v>36.799999999999997</v>
       </c>
       <c r="E22" s="22" t="s">
@@ -2043,7 +2043,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="9">
+      <c r="D23" s="29">
         <v>85</v>
       </c>
       <c r="E23" s="9" t="s">
@@ -2068,7 +2068,7 @@
       <c r="C24" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="29">
         <v>25.3</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -2093,7 +2093,7 @@
       <c r="C25" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="29">
         <v>54.17</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -2118,8 +2118,8 @@
       <c r="C26" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="9">
-        <v>37.6</v>
+      <c r="D26" s="29">
+        <v>37.11</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>149</v>
@@ -2143,7 +2143,7 @@
       <c r="C27" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -2168,7 +2168,7 @@
       <c r="C28" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -3098,7 +3098,7 @@
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25">
-        <v>705.6</v>
+        <v>738</v>
       </c>
       <c r="G21" s="25"/>
     </row>
@@ -3111,7 +3111,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25">
-        <v>71.64</v>
+        <v>75.239999999999995</v>
       </c>
       <c r="G22" s="25"/>
     </row>
@@ -3119,6 +3119,7 @@
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -3130,6 +3131,7 @@
       <c r="E24" t="s">
         <v>143</v>
       </c>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -3141,26 +3143,28 @@
       <c r="C25" s="6" t="s">
         <v>136</v>
       </c>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F27">
-        <v>705.6</v>
+      <c r="F27" s="29">
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="3">
-        <v>71.64</v>
+      <c r="F28" s="25">
+        <v>75.239999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -3174,7 +3178,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3558,7 +3562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -6370,7 +6374,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6473,8 +6477,8 @@
       <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="D3">
-        <v>2.66</v>
+      <c r="D3" s="29">
+        <v>0.72</v>
       </c>
       <c r="E3" t="s">
         <v>92</v>
@@ -6500,8 +6504,8 @@
       <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D4">
-        <v>2.7</v>
+      <c r="D4" s="29">
+        <v>-0.16</v>
       </c>
       <c r="E4" t="s">
         <v>92</v>
@@ -6530,8 +6534,8 @@
       <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="D5">
-        <v>2.8</v>
+      <c r="D5" s="29">
+        <v>0.23</v>
       </c>
       <c r="E5" t="s">
         <v>92</v>
@@ -6556,6 +6560,7 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="D6" s="29"/>
       <c r="J6">
         <v>40</v>
       </c>
@@ -6570,6 +6575,7 @@
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="D7" s="29"/>
       <c r="H7">
         <v>39.51</v>
       </c>
@@ -6593,8 +6599,8 @@
       <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="D8">
-        <v>3.05</v>
+      <c r="D8" s="29">
+        <v>1.2</v>
       </c>
       <c r="E8" t="s">
         <v>92</v>
@@ -6622,8 +6628,8 @@
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="D9">
-        <v>2.0699999999999998</v>
+      <c r="D9" s="29">
+        <v>1.1399999999999999</v>
       </c>
       <c r="E9" t="s">
         <v>92</v>
@@ -6683,7 +6689,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6951,7 +6957,7 @@
         <v>129</v>
       </c>
       <c r="I9">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">

--- a/projects/puerto_rico_stoch/data/data_W.xlsx
+++ b/projects/puerto_rico_stoch/data/data_W.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828A4D46-ABD0-4AA8-BD3A-03D999146CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14091B2-2A65-4048-89F6-0396CC2F3A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1474,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D28"/>
     </sheetView>
   </sheetViews>
@@ -3603,7 +3603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -5353,7 +5353,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/projects/puerto_rico_stoch/data/data_W.xlsx
+++ b/projects/puerto_rico_stoch/data/data_W.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14091B2-2A65-4048-89F6-0396CC2F3A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB7F9AA-6DC4-4C0E-A03A-65353A32FD2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -787,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -829,6 +829,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3603,7 +3604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -5658,8 +5659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5767,7 +5768,7 @@
         <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>2084.1332580463013</v>
+        <v>2251.8040000000001</v>
       </c>
       <c r="I3" t="s">
         <v>199</v>
@@ -5797,8 +5798,8 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4">
-        <v>688.39634941329859</v>
+      <c r="H4" s="29">
+        <v>500.16300000000001</v>
       </c>
       <c r="I4" t="s">
         <v>199</v>
@@ -5833,7 +5834,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>323.88212908717634</v>
+        <v>1057.1590000000001</v>
       </c>
       <c r="I5" t="s">
         <v>199</v>
@@ -5868,7 +5869,7 @@
         <v>184</v>
       </c>
       <c r="H6" s="1">
-        <v>539.80354847862725</v>
+        <v>634.29600000000005</v>
       </c>
       <c r="I6" t="s">
         <v>199</v>
@@ -5893,6 +5894,7 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="H7" s="29"/>
       <c r="J7">
         <v>30</v>
       </c>
@@ -5922,8 +5924,8 @@
       <c r="G8" t="s">
         <v>184</v>
       </c>
-      <c r="H8">
-        <v>4531.3620000000001</v>
+      <c r="H8" s="31">
+        <v>4867.5</v>
       </c>
       <c r="I8" t="s">
         <v>199</v>
@@ -5957,8 +5959,8 @@
       <c r="G9" t="s">
         <v>184</v>
       </c>
-      <c r="H9">
-        <v>7746.9369999999999</v>
+      <c r="H9" s="31">
+        <v>15083.665999999999</v>
       </c>
       <c r="I9" t="s">
         <v>199</v>
